--- a/view/public/历史时间表.xlsx
+++ b/view/public/历史时间表.xlsx
@@ -1,121 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新中国成立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛泽东一生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元元年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.D.1976.09.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.D.1893.12.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.D.1949.10.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.D.1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二次世界大战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.D.1939.09.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.D.1945.09.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古罗马（罗马王政时代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.C.753</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.C.509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古罗马（罗马共和国）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古罗马（罗马帝国）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.C.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.D.1453</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -137,28 +42,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -232,6 +130,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -266,6 +165,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -300,20 +200,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -435,111 +331,209 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="3" width="15.875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>事件</v>
+      </c>
+      <c r="B1" t="str">
+        <v>开始时间</v>
+      </c>
+      <c r="C1" t="str">
+        <v>结束时间</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>*大卫</v>
+      </c>
+      <c r="B2" t="str">
+        <v>B.C.1040</v>
+      </c>
+      <c r="C2" t="str">
+        <v>B.C.970</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>古罗马（罗马王政时代）</v>
+      </c>
+      <c r="B3" t="str">
+        <v>B.C.753</v>
+      </c>
+      <c r="C3" t="str">
+        <v>B.C.509</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>古罗马（罗马共和国）</v>
+      </c>
+      <c r="B4" t="str">
+        <v>B.C.509</v>
+      </c>
+      <c r="C4" t="str">
+        <v>B.C.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>古罗马（罗马帝国）</v>
+      </c>
+      <c r="B5" t="str">
+        <v>B.C.27</v>
+      </c>
+      <c r="C5" t="str">
+        <v>A.D.1453</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>公元元年</v>
+      </c>
+      <c r="B6" t="str">
+        <v>A.D.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>使徒彼得</v>
+      </c>
+      <c r="B7" t="str">
+        <v>A.D.1.</v>
+      </c>
+      <c r="C7" t="str">
+        <v>A.D.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>使徒保罗</v>
+      </c>
+      <c r="B8" t="str">
+        <v>A.D.5.06.29</v>
+      </c>
+      <c r="C8" t="str">
+        <v>A.D.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>第一次世界大战</v>
+      </c>
+      <c r="B9" t="str">
+        <v>A.D.1914.07.28</v>
+      </c>
+      <c r="C9" t="str">
+        <v>A.D.1918.11.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>第二次世界大战</v>
+      </c>
+      <c r="B10" t="str">
+        <v>A.D.1939.09.01</v>
+      </c>
+      <c r="C10" t="str">
+        <v>A.D.1945.09.02</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>新中国成立</v>
+      </c>
+      <c r="B11" t="str">
+        <v>A.D.1949.10.01</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>毛泽东一生</v>
+      </c>
+      <c r="B12" t="str">
+        <v>A.D.1893.12.26</v>
+      </c>
+      <c r="C12" t="str">
+        <v>A.D.1976.09.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>希特勒一生</v>
+      </c>
+      <c r="B13" t="str">
+        <v>A.D.1889.04.20</v>
+      </c>
+      <c r="C13" t="str">
+        <v>A.D.1945.04.30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>十字军东征</v>
+      </c>
+      <c r="B14" t="str">
+        <v>A.D.1096</v>
+      </c>
+      <c r="C14" t="str">
+        <v>A.D.1291</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -549,11 +543,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -563,10 +556,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/view/public/历史时间表.xlsx
+++ b/view/public/历史时间表.xlsx
@@ -1,26 +1,274 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="585" windowWidth="10455" windowHeight="4050"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>*大卫</t>
+  </si>
+  <si>
+    <t>B.C.1040</t>
+  </si>
+  <si>
+    <t>B.C.970</t>
+  </si>
+  <si>
+    <t>古罗马（罗马王政时代）</t>
+  </si>
+  <si>
+    <t>B.C.753</t>
+  </si>
+  <si>
+    <t>B.C.509</t>
+  </si>
+  <si>
+    <t>古罗马（罗马共和国）</t>
+  </si>
+  <si>
+    <t>B.C.27</t>
+  </si>
+  <si>
+    <t>古罗马（罗马帝国）</t>
+  </si>
+  <si>
+    <t>A.D.1453</t>
+  </si>
+  <si>
+    <t>公元元年</t>
+  </si>
+  <si>
+    <t>A.D.1</t>
+  </si>
+  <si>
+    <t>使徒彼得</t>
+  </si>
+  <si>
+    <t>A.D.1.</t>
+  </si>
+  <si>
+    <t>A.D.65</t>
+  </si>
+  <si>
+    <t>使徒保罗</t>
+  </si>
+  <si>
+    <t>A.D.5.06.29</t>
+  </si>
+  <si>
+    <t>A.D.67</t>
+  </si>
+  <si>
+    <t>十字军东征</t>
+  </si>
+  <si>
+    <t>A.D.1096</t>
+  </si>
+  <si>
+    <t>A.D.1291</t>
+  </si>
+  <si>
+    <t>结束事件</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>犹太元年</t>
+  </si>
+  <si>
+    <t>B.C.3760</t>
+  </si>
+  <si>
+    <t>犹太教</t>
+  </si>
+  <si>
+    <t>亚当（犹太算法）</t>
+  </si>
+  <si>
+    <t>圣经</t>
+  </si>
+  <si>
+    <t>亚当（基督教算法）</t>
+  </si>
+  <si>
+    <t>B.C.4004</t>
+  </si>
+  <si>
+    <t>罗马</t>
+  </si>
+  <si>
+    <t>盖乌斯·尤利乌斯·恺撒</t>
+  </si>
+  <si>
+    <t>B.C.100.07.13</t>
+  </si>
+  <si>
+    <t>B.C.44.03.15</t>
+  </si>
+  <si>
+    <t>凯撒大帝</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>耶稣</t>
+  </si>
+  <si>
+    <t>A.D.33</t>
+  </si>
+  <si>
+    <t>圣殿被毁</t>
+  </si>
+  <si>
+    <t>A.D.70</t>
+  </si>
+  <si>
+    <t>塔木德</t>
+  </si>
+  <si>
+    <t>A.D.100</t>
+  </si>
+  <si>
+    <t>A.D.500</t>
+  </si>
+  <si>
+    <t>塔木德（耶路撒冷版）</t>
+  </si>
+  <si>
+    <t>A.D.450</t>
+  </si>
+  <si>
+    <t>塔木德（巴比伦版）</t>
+  </si>
+  <si>
+    <t>A.D.550</t>
+  </si>
+  <si>
+    <t>君士（康斯）坦丁一世</t>
+  </si>
+  <si>
+    <t>A.D.272(274).2.27</t>
+  </si>
+  <si>
+    <t>A.D.337.05.22</t>
+  </si>
+  <si>
+    <t>罗马第一个基督教君主</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>萨阿迪·本·约瑟夫</t>
+  </si>
+  <si>
+    <t>A.D.882</t>
+  </si>
+  <si>
+    <t>A.D.942</t>
+  </si>
+  <si>
+    <t>犹太学者，“加昂”：主张理性至上，不是神创造了理性，而是神符合理性。</t>
+  </si>
+  <si>
+    <t>拉希</t>
+  </si>
+  <si>
+    <t>A.D.1040</t>
+  </si>
+  <si>
+    <t>A.D.1105</t>
+  </si>
+  <si>
+    <t>犹太学者，圣经及塔木德评注家：影响着尼古拉。</t>
+  </si>
+  <si>
+    <t>亚伯拉罕·伊本·埃兹拉</t>
+  </si>
+  <si>
+    <t>A.D.1089</t>
+  </si>
+  <si>
+    <t>A.D.1164</t>
+  </si>
+  <si>
+    <t>犹太学者：主张摩西五经不是出于摩西</t>
+  </si>
+  <si>
+    <t>亚伯拉罕·阿布拉费尔</t>
+  </si>
+  <si>
+    <t>A.D.1240</t>
+  </si>
+  <si>
+    <t>A.D.1300</t>
+  </si>
+  <si>
+    <t>犹太学者：主张信仰统一。</t>
+  </si>
+  <si>
+    <t>格拉西阿·纳西</t>
+  </si>
+  <si>
+    <t>A.D.1510</t>
+  </si>
+  <si>
+    <t>A.D.1569</t>
+  </si>
+  <si>
+    <t>犹太人：被迫昄依基督教，资助大量犹太人迫害犹太人的国家。</t>
+  </si>
+  <si>
+    <t>巴尔·舍姆·托夫</t>
+  </si>
+  <si>
+    <t>A.D.1700</t>
+  </si>
+  <si>
+    <t>A.D.1760</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -377,163 +625,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>事件</v>
-      </c>
-      <c r="B1" t="str">
-        <v>开始时间</v>
-      </c>
-      <c r="C1" t="str">
-        <v>结束时间</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>*大卫</v>
-      </c>
-      <c r="B2" t="str">
-        <v>B.C.1040</v>
-      </c>
-      <c r="C2" t="str">
-        <v>B.C.970</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>古罗马（罗马王政时代）</v>
-      </c>
-      <c r="B3" t="str">
-        <v>B.C.753</v>
-      </c>
-      <c r="C3" t="str">
-        <v>B.C.509</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>古罗马（罗马共和国）</v>
-      </c>
-      <c r="B4" t="str">
-        <v>B.C.509</v>
-      </c>
-      <c r="C4" t="str">
-        <v>B.C.27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>古罗马（罗马帝国）</v>
-      </c>
-      <c r="B5" t="str">
-        <v>B.C.27</v>
-      </c>
-      <c r="C5" t="str">
-        <v>A.D.1453</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>公元元年</v>
-      </c>
-      <c r="B6" t="str">
-        <v>A.D.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>使徒彼得</v>
-      </c>
-      <c r="B7" t="str">
-        <v>A.D.1.</v>
-      </c>
-      <c r="C7" t="str">
-        <v>A.D.65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>使徒保罗</v>
-      </c>
-      <c r="B8" t="str">
-        <v>A.D.5.06.29</v>
-      </c>
-      <c r="C8" t="str">
-        <v>A.D.67</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>第一次世界大战</v>
-      </c>
-      <c r="B9" t="str">
-        <v>A.D.1914.07.28</v>
-      </c>
-      <c r="C9" t="str">
-        <v>A.D.1918.11.11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>第二次世界大战</v>
-      </c>
-      <c r="B10" t="str">
-        <v>A.D.1939.09.01</v>
-      </c>
-      <c r="C10" t="str">
-        <v>A.D.1945.09.02</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>新中国成立</v>
-      </c>
-      <c r="B11" t="str">
-        <v>A.D.1949.10.01</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>毛泽东一生</v>
-      </c>
-      <c r="B12" t="str">
-        <v>A.D.1893.12.26</v>
-      </c>
-      <c r="C12" t="str">
-        <v>A.D.1976.09.09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>希特勒一生</v>
-      </c>
-      <c r="B13" t="str">
-        <v>A.D.1889.04.20</v>
-      </c>
-      <c r="C13" t="str">
-        <v>A.D.1945.04.30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>十字军东征</v>
-      </c>
-      <c r="B14" t="str">
-        <v>A.D.1096</v>
-      </c>
-      <c r="C14" t="str">
-        <v>A.D.1291</v>
+    <row r="1" spans="1:5" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
-  </ignoredErrors>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -543,9 +999,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -556,9 +1015,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>